--- a/back/public/template/bless capital/Податки з К-П.xlsx
+++ b/back/public/template/bless capital/Податки з К-П.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zharkooleg/Documents/Rakul-App/Договора/17.11.2020/17.11 К-П  гнп  Дзюбук-Кучерук, вул. Яблунева 11,пр.  664 в шл/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zharkooleg/projects/code/rakul/back/public/template/bless capital/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5702872E-3608-FA47-AD92-EF22701166FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15DB4F4-F917-CF4F-B635-EEC4D91CCF38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10060" yWindow="3080" windowWidth="38700" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Сумма
 платежа</t>
@@ -58,52 +56,22 @@
 получателя</t>
   </si>
   <si>
-    <t>UA728999980333199338000010380</t>
-  </si>
-  <si>
-    <t>К-Свят УК/с. С-Борщагівка/11010501</t>
-  </si>
-  <si>
-    <t>UA258999980313040156000010356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">К-Свят УК/м. Вишневе/24140500 </t>
-  </si>
-  <si>
-    <t>UA908999980313010063000010356</t>
-  </si>
-  <si>
-    <t>К-Свят УК/ м. Вишневе/11011000</t>
-  </si>
-  <si>
-    <t>;Податок на доходи фізичних осіб, що сплачується фізичними особами, які не підлягають обов'язковому декларуванню, 5%;;;</t>
-  </si>
-  <si>
-    <t>;Збір з операцій придбавання (купівлі-продажу) нерухомого майна, 1%;;;</t>
-  </si>
-  <si>
-    <t>;Військовий збір, 1,5%;;;</t>
-  </si>
-  <si>
-    <t>*;101;11010501;</t>
-  </si>
-  <si>
-    <t>*;101;24140500;</t>
-  </si>
-  <si>
-    <t>*;101;11011000;</t>
-  </si>
-  <si>
     <t>покупець</t>
   </si>
   <si>
     <t>продавець</t>
   </si>
   <si>
-    <t>Дзюбук Руслан Миколайович</t>
-  </si>
-  <si>
-    <t>Кучерук Володимир Борисович</t>
+    <t>адреса квартири яка продається</t>
+  </si>
+  <si>
+    <t>сума по договору</t>
+  </si>
+  <si>
+    <t>місце роботи покупця</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -113,7 +81,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +135,12 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -211,35 +185,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -254,16 +213,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -273,9 +222,25 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -619,307 +584,134 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F2" sqref="F2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="26.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="18" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="36.1640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="36" style="8" customWidth="1"/>
-    <col min="9" max="9" width="25.5" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="9.1640625" style="8"/>
+    <col min="1" max="1" width="11.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="36.1640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="36" style="5" customWidth="1"/>
+    <col min="9" max="9" width="25.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22">
-        <v>18600</v>
-      </c>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:10" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <f>J1*5%</f>
-        <v>930</v>
-      </c>
-      <c r="B2" s="18" t="str">
-        <f>B9</f>
-        <v>Дзюбук Руслан Миколайович</v>
-      </c>
-      <c r="C2" s="21">
-        <f>C9</f>
-        <v>2898918155</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="6" t="str">
-        <f>CONCATENATE(Лист2!B2,C2,Лист2!A2,B2)</f>
-        <v>*;101;11010501;2898918155;Податок на доходи фізичних осіб, що сплачується фізичними особами, які не підлягають обов'язковому декларуванню, 5%;;;Дзюбук Руслан Миколайович</v>
-      </c>
-      <c r="F2" s="7">
-        <v>899998</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+    </row>
+    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="7">
-        <v>38010937</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <f>J1*1%</f>
-        <v>186</v>
-      </c>
-      <c r="B3" s="18" t="str">
-        <f>B8</f>
-        <v>Кучерук Володимир Борисович</v>
-      </c>
-      <c r="C3" s="21">
-        <f>C8</f>
-        <v>3066605498</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="10" t="str">
-        <f>CONCATENATE(Лист2!B3,C3,Лист2!A3,B3)</f>
-        <v>*;101;24140500;3066605498;Збір з операцій придбавання (купівлі-продажу) нерухомого майна, 1%;;;Кучерук Володимир Борисович</v>
-      </c>
-      <c r="F3" s="7">
-        <v>899998</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+    </row>
+    <row r="10" spans="1:10" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="21"/>
+    </row>
+    <row r="11" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="7">
-        <v>38010937</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24">
-        <f>J1*1.5%</f>
-        <v>279</v>
-      </c>
-      <c r="B4" s="18" t="str">
-        <f>B9</f>
-        <v>Дзюбук Руслан Миколайович</v>
-      </c>
-      <c r="C4" s="20">
-        <f>C9</f>
-        <v>2898918155</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="10" t="str">
-        <f>CONCATENATE(Лист2!B4,C4,Лист2!A4,B4)</f>
-        <v>*;101;11011000;2898918155;Військовий збір, 1,5%;;;Дзюбук Руслан Миколайович</v>
-      </c>
-      <c r="F4" s="7">
-        <v>899998</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="21"/>
+    </row>
+    <row r="12" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="B12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="7">
-        <v>38010937</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="7">
-        <v>3066605498</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="7">
-        <v>2898918155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="C12" s="21"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="116.33203125" customWidth="1"/>
-    <col min="2" max="2" width="41.1640625" customWidth="1"/>
-    <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="32.5" customWidth="1"/>
-    <col min="5" max="6" width="33.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="28" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="7">
-        <v>899998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="7">
-        <v>38010937</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="7">
-        <v>899998</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="7">
-        <v>38010937</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="7">
-        <v>899998</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="7">
-        <v>38010937</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>